--- a/notes.xlsx
+++ b/notes.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C58"/>
+  <dimension ref="A1:C82"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1421,6 +1421,434 @@
         </is>
       </c>
     </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>2023-02-08 09:48:43.117624</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Término do painel de Caixas</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>2023-02-08 09:49:01.255791</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Criação de métricas para ação comercial ( 25$ = 1 ponto)</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>2023-02-08 09:49:12.556209</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Validação das métricas da ação comercial </t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>2023-02-08 09:49:28.926293</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>Criação do painel para acompanhamento da ação.</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>2023-02-08 09:49:29.106279</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>2023-02-08 10:09:45.489598</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>Customização sistema para "Lançamento de Saldos" - Menu para Financeiro lançar individualmente os valores de cada filial - usar no DRE como Saldo Final</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>2023-02-08 10:10:02.292007</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>Criação de Fonte em AdvPL para função do usuário.</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>2023-02-08 10:10:18.317992</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Criação de tabelas e Menu em CFG </t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>2023-02-08 10:10:34.367977</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>Gatilho de campos para somatório automático em tempo real de campos</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>2023-02-08 10:10:42.996982</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>Validação de menu e usabilidade</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>2023-02-08 10:10:54.175163</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>Aplicação em produção</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>2023-02-08 10:22:35.777234</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Finalização de Customização Financeiro - Lançamento de Saldos </t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>2023-02-08 11:37:14.238226</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>Criação de atributo</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>2023-02-08 12:59:14.695669</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>- Inconformidades ( 1/2 mêses)
+    - Processo inicial realizado em caderno, anotações feitas a mão
+        - Não havia histórico confiável, Caderno pode ser facilmente danificado. Dados podem ser facilmente perdidos, tamanho máximo = folhas do caderno.
+    - 1ª Versão: Criação de Menu customizado para lançamento.
+        - Vínculo de Dados: Menu com lançamento vinculado à código de vendas.
+        - Uniformidade de Dados: Inconformidades categorizadas em motivos fixos.
+        - Histórico de Dados: Campo Data de criação e Data de referência. (catalogando a data que foi aberto a inconformidade e a data em que a inconformidade foi ocorrida)
+        - ************New Feature:************ Criação do PRIMEIRO Fonte para customização, (antes só era possível realizar customizações atravéz de Terceiros)
+        - ********New Feature:******** Primeira extração de Dados para B.I. (antes não era conhecido como realizar esse processo)</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>2023-02-08 12:59:26.222830</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>- Conferência de Caixa (4/5 mêses)
+    - (processo inicial era feito manualmente e individualmente para cada um dos caixas de todas as filiais)
+        - Tempo médio de execução: 10 a 20 minutos por filial
+        - Erros de Operação: Vários,  apenas conferido por fotos de funcionários
+        - Erros de Validação: Vários, valores era conferidos em maior parte à mão, feitos em calculadora, grande margem para erros em larga escala. Validação de campos individualmente e manualmente
+    - 1ª versão: Excell com gatilhos e macros para conferência automática dos caixas
+        - Extração Manual
+        - Tempo médio de execução 7 a 10 minutos para TODAS as filiais
+        - Erros de operação: Poucos, possível extração errada da tabela, requer organização para salvar e armazenar tabelas. Possível erros em filtro de data em extração.
+        - Erros de validação: Poucos, valores eram todos conferidos através de métricas e fórmulas, nenhuma processo de conta era feito manualmente. Possível erro nos lançamentos de sangrias ocasionando uma pequena divergência em poucos casos. (erro do lançamento da sangria, não da fórmula)
+    - 2ª versão: B.I. com extração das tabelas para realizar a conferência de caixas
+        - Solução de problemas - Conf. Automática do Sistema possui erros (notas antigas / vencidas)
+            - Validação de todas as vendas concluídas no dia para soma real de valores (erros de 2 formas de pagamentos resolvido também)
+            - Tempo médio de execução: 0.
+            - Erros de operação: 0, processo inteiramente automatizado e sem erros de extração ou filtragem de dados.
+            - Erros de validação: Menos de 1%, a validação padrão do Protheus possui erros, novo modelo adiciona uma função para conseguir identificar e mostrar resultado correto quando ocorrer os erros automaticamente.
+            - **************Nova Feature:************** Conferência Multipla Simultânea de caixas.
+            - ******Nova Feature:****** Calculo automático de conferência de valores
+        - Criação de painel B.I.
+            - Conferência Geral (todos os caixas)
+            - Conferência Analítica (caixas individuais com vendas discriminadas 1 a 1 para conferência assertiva.)
+            - **Nova Feature:** Quebra de documentos por forma de pagamento.
+            - **Nova Feature:** Unificação de Conferência de Caixas com Notas Fiscais</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>2023-02-09 09:32:42.975687</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Reunião com Morgana para entendimento WorkFlow RH </t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>2023-02-24 13:48:07.189904</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Relatório do dia até agora: (início 12:00h)
+- Validação de Exceções para métricas de CashBred
+- Alteração de valor de produto
+- Tratando exceção em métrica (fazer com que vendas que utilizem NCC não gerem CashBred, porém não removam o CashBred da venda original)
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>2023-02-24 13:48:34.841590</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>Tratando exceção do NCC, está removendo valores de CashBred da venda original.</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>2023-02-24 13:59:06.099363</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Novo problema: TODAS AS NCCs não estão mais gerando CashBack, porém elas estão também removendo os valores da Carteira do cliente, removendo 2x.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>2023-02-24 15:03:50.135970</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>Validação de Métricas, qualquer valor de CashBred que for mostrado deve levar em consideração "VAL", não podendo mostrar nenhuma valor sem essa redução</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>2023-02-24 15:04:35.076877</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Criação da métrica que valida apenas o valor gasto, sem fazer a conversão para CashBred, assim podendo ser subtraído do valor do faturamento antes de qualquer conversão, facilitando a fórmula </t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>2023-02-24 15:04:36.008215</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>81</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>2023-02-24 20:05:53.311169</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>82</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>2023-02-24 20:19:43.659760</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>teste</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
